--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_2_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_2_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16554.83669789038</v>
+        <v>993290.2018734229</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16554.83669789038</v>
+        <v>993290.2018734229</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111595553.814509</v>
+        <v>44172369.1404008</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9903.573245996102</v>
+        <v>947023.8679297363</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19610.81128098548</v>
+        <v>1860072.222170867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29318.04931597486</v>
+        <v>2773120.576411999</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40037.6963706902</v>
+        <v>3631311.732776804</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50757.3434254055</v>
+        <v>4489502.889141609</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60571.80348785514</v>
+        <v>5402551.243382738</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70386.26355030478</v>
+        <v>6315599.597623866</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80200.72361275443</v>
+        <v>7228647.951864994</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90920.37066746978</v>
+        <v>8086839.108229794</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101179.6084702436</v>
+        <v>8965782.020781929</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110994.0685326933</v>
+        <v>9878830.37502306</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120808.5285951429</v>
+        <v>10791878.7292642</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130622.9886575925</v>
+        <v>11704927.08350533</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140890.9628439865</v>
+        <v>12583455.51239748</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151610.6098987019</v>
+        <v>13441646.66876229</v>
       </c>
     </row>
   </sheetData>
